--- a/biology/Médecine/Étouffement/Étouffement.xlsx
+++ b/biology/Médecine/Étouffement/Étouffement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89touffement</t>
+          <t>Étouffement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étouffement est l'obstruction mécanique du flux d’air dans les voies respiratoires. Il produit comme conséquence quelque type de détresse respiratoire.
 L'inhalation involontaire de fragments d'aliments au cours de la déglutition peut provoquer un étouffement par fausse route.
